--- a/MicroGrids/Results/Scenario_Information.xlsx
+++ b/MicroGrids/Results/Scenario_Information.xlsx
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>184282.9124405129</v>
+        <v>173216.2381932754</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>29382.86769181301</v>
+        <v>20853.17979075596</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>843.7302013142505</v>
+        <v>561.5327819364776</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Scenario_Information.xlsx
+++ b/MicroGrids/Results/Scenario_Information.xlsx
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>173216.2381932754</v>
+        <v>185138.5925649312</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20853.17979075596</v>
+        <v>30095.19691855702</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>561.5327819364776</v>
+        <v>773.0195129204911</v>
       </c>
     </row>
   </sheetData>
